--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333E6FFE-DBF1-4546-B2AB-260F70E3B846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358613D2-71BD-48EE-8D13-68FE702DFB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -399,6 +399,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,7 +409,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -752,7 +752,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -953,7 +953,9 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>174.5</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1089,12 +1091,12 @@
       <c r="B16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1184,8 +1186,8 @@
         <v>46002</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1252,12 +1254,12 @@
       <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
@@ -1415,12 +1417,12 @@
       <c r="B30" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
@@ -1578,12 +1580,12 @@
       <c r="B37" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="8"/>
@@ -1726,7 +1728,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>174.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4901,7 +4903,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5101,7 +5103,9 @@
         <v>45992</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13">
+        <v>669</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
@@ -5238,12 +5242,12 @@
       <c r="B16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5333,8 +5337,8 @@
         <v>46002</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5401,12 +5405,12 @@
       <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
@@ -5564,12 +5568,12 @@
       <c r="B30" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
@@ -5727,12 +5731,12 @@
       <c r="B37" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="8"/>
@@ -5871,7 +5875,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9050,7 +9054,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9250,7 +9254,9 @@
         <v>45992</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13">
+        <v>40.75</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
@@ -9387,12 +9393,12 @@
       <c r="B16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -9482,8 +9488,8 @@
         <v>46002</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -9550,12 +9556,12 @@
       <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
@@ -9713,12 +9719,12 @@
       <c r="B30" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
@@ -9876,12 +9882,12 @@
       <c r="B37" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="8"/>
@@ -10020,7 +10026,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>40.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358613D2-71BD-48EE-8D13-68FE702DFB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99296349-25AA-45AE-BE58-B669728F7654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -752,7 +752,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -977,7 +977,9 @@
         <v>45993</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15">
+        <v>438.5</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
@@ -1001,7 +1003,9 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>713.25</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1724,11 +1728,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>438.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>174.5</v>
+        <v>887.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4903,7 +4907,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5128,7 +5132,9 @@
         <v>45993</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15">
+        <v>187.67</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
@@ -5152,7 +5158,9 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>54.25</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5875,11 +5883,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>669</v>
+        <v>856.67</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>54.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9054,7 +9062,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9280,7 +9288,9 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>10137.75</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -9302,7 +9312,9 @@
         <v>45994</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13">
+        <v>12381.75</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
@@ -10026,11 +10038,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>40.75</v>
+        <v>12422.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>10137.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99296349-25AA-45AE-BE58-B669728F7654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6FDAD-84BB-4128-A81E-4C0120E100C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -126,6 +126,9 @@
       </rPr>
       <t xml:space="preserve"> GICA, GRACE</t>
     </r>
+  </si>
+  <si>
+    <t>NO TRIP</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1027,8 +1030,10 @@
         <v>45995</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="39"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4891,11 +4896,12 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4907,7 +4913,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5183,7 +5189,9 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <v>4143.42</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5887,7 +5895,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>54.25</v>
+        <v>4197.67</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9062,7 +9070,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9337,7 +9345,9 @@
         <v>45995</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13">
+        <v>398</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
@@ -10038,7 +10048,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>12422.5</v>
+        <v>12820.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6FDAD-84BB-4128-A81E-4C0120E100C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC336B22-1E63-4208-8A4B-1550F7272D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -4912,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5188,10 +5188,10 @@
         <v>45995</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12">
-        <v>4143.42</v>
-      </c>
+      <c r="D13" s="13">
+        <v>507.08</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5891,11 +5891,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>856.67</v>
+        <v>1363.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4197.67</v>
+        <v>54.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9069,7 +9069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC336B22-1E63-4208-8A4B-1550F7272D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F7F1B-B6D9-43D8-9E8E-529CABEA7AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1055,7 +1055,9 @@
         <v>45996</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13">
+        <v>437.5</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="35"/>
       <c r="G14" s="1"/>
@@ -1733,7 +1735,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>438.5</v>
+        <v>876</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4912,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5214,7 +5216,9 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <v>507.58</v>
+      </c>
       <c r="F14" s="35"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -5895,7 +5899,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>54.25</v>
+        <v>561.82999999999993</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9069,8 +9073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9370,7 +9374,9 @@
         <v>45996</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13">
+        <v>19</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="35"/>
       <c r="G14" s="1"/>
@@ -10048,7 +10054,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>12820.5</v>
+        <v>12839.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F7F1B-B6D9-43D8-9E8E-529CABEA7AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F41702-C5FB-4144-8D6F-B5F8120CA431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1080,7 +1080,9 @@
         <v>45997</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15">
+        <v>268</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
@@ -1735,7 +1737,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>876</v>
+        <v>1144</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4915,7 +4917,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5241,7 +5243,9 @@
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>192.17</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5899,7 +5903,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>561.82999999999993</v>
+        <v>753.99999999999989</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9074,7 +9078,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9399,7 +9403,9 @@
         <v>45997</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15">
+        <v>654.5</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
@@ -10054,7 +10060,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>12839.5</v>
+        <v>13494</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F41702-C5FB-4144-8D6F-B5F8120CA431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EAEC24-B852-48D1-88FD-C71C4CBAB9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -4916,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5244,7 +5244,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="15"/>
       <c r="E15" s="12">
-        <v>192.17</v>
+        <v>187.67</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>753.99999999999989</v>
+        <v>749.49999999999989</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9077,7 +9077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EAEC24-B852-48D1-88FD-C71C4CBAB9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDD9ED0-3074-44F4-AEF6-BF0A0FDCF0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1130,7 +1130,9 @@
         <v>45999</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13">
+        <v>41.75</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
@@ -1737,7 +1739,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1144</v>
+        <v>1185.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4916,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5293,7 +5295,9 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>838.17</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5903,7 +5907,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>749.49999999999989</v>
+        <v>1587.6699999999998</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9077,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9454,7 +9458,9 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>709.75</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -10064,7 +10070,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>10137.75</v>
+        <v>10847.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDD9ED0-3074-44F4-AEF6-BF0A0FDCF0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE3617F-3A7E-4A9A-815C-8E9A76985B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1155,7 +1155,9 @@
         <v>46000</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>256.75</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -1739,7 +1741,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1185.75</v>
+        <v>1442.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4919,7 +4921,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5319,7 +5321,9 @@
         <v>46000</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1022.25</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -5903,7 +5907,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1363.75</v>
+        <v>2386</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9081,8 +9085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9482,7 +9486,9 @@
         <v>46000</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>426.5</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -10066,7 +10072,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>13494</v>
+        <v>13920.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE3617F-3A7E-4A9A-815C-8E9A76985B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C771986-83E1-45D5-96D8-6453BE685753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1180,8 +1180,10 @@
         <v>46001</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="39"/>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4904,12 +4906,13 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4921,7 +4924,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5347,7 +5350,9 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>767</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5911,7 +5916,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1587.6699999999998</v>
+        <v>2354.67</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9085,8 +9090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9512,7 +9517,9 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>86.25</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -10076,7 +10083,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>10847.5</v>
+        <v>10933.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C771986-83E1-45D5-96D8-6453BE685753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB30BB2-AE5D-4AE5-9F4C-A1F68F20E925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9090,8 +9090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB30BB2-AE5D-4AE5-9F4C-A1F68F20E925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52B40D-08C6-4EBC-A924-EB6F8560B647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +231,11 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -343,7 +348,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +417,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -754,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D19:E20"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1205,7 +1211,9 @@
         <v>46002</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="36"/>
+      <c r="D20" s="36">
+        <v>1378.25</v>
+      </c>
       <c r="E20" s="36"/>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
@@ -1743,7 +1751,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1442.5</v>
+        <v>2820.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4924,7 +4932,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5375,7 +5383,9 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="E20" s="40">
+        <v>295.42</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5916,7 +5926,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2354.67</v>
+        <v>2650.09</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9090,8 +9100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9542,7 +9552,9 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="E20" s="40">
+        <v>534.5</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -10083,7 +10095,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>10933.75</v>
+        <v>11468.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52B40D-08C6-4EBC-A924-EB6F8560B647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C24557-A8BA-4478-AB20-709B81A6A091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -408,6 +408,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,7 +418,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1036,10 +1036,10 @@
         <v>45995</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1110,12 +1110,12 @@
       <c r="B16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1186,10 +1186,10 @@
         <v>46001</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1237,7 +1237,9 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>330</v>
+      </c>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1281,12 +1283,12 @@
       <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
@@ -1444,12 +1446,12 @@
       <c r="B30" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
@@ -1607,12 +1609,12 @@
       <c r="B37" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="8"/>
@@ -1755,7 +1757,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>887.75</v>
+        <v>1217.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4932,7 +4934,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5281,12 +5283,12 @@
       <c r="B16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5383,7 +5385,7 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="40">
+      <c r="E20" s="37">
         <v>295.42</v>
       </c>
       <c r="F20" s="11"/>
@@ -5407,7 +5409,9 @@
         <v>46003</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13">
+        <v>1312.67</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
@@ -5452,12 +5456,12 @@
       <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
@@ -5615,12 +5619,12 @@
       <c r="B30" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
@@ -5778,12 +5782,12 @@
       <c r="B37" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="8"/>
@@ -5922,7 +5926,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2386</v>
+        <v>3698.67</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9101,7 +9105,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9450,12 +9454,12 @@
       <c r="B16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -9552,7 +9556,7 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="40">
+      <c r="E20" s="37">
         <v>534.5</v>
       </c>
       <c r="F20" s="11"/>
@@ -9576,7 +9580,9 @@
         <v>46003</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13">
+        <v>1089.5</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
@@ -9621,12 +9627,12 @@
       <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
@@ -9784,12 +9790,12 @@
       <c r="B30" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
@@ -9947,12 +9953,12 @@
       <c r="B37" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="8"/>
@@ -10091,7 +10097,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>13920.5</v>
+        <v>15010</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C24557-A8BA-4478-AB20-709B81A6A091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC7861-C897-4454-A1A4-DD3B9C2D9C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1261,7 +1261,9 @@
         <v>46004</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15">
+        <v>18</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
@@ -1753,7 +1755,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2820.75</v>
+        <v>2838.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4934,7 +4936,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5434,7 +5436,9 @@
         <v>46004</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15">
+        <v>71907.5</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
@@ -5926,7 +5930,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>3698.67</v>
+        <v>75606.17</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9105,7 +9109,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9605,7 +9609,9 @@
         <v>46004</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15">
+        <v>3958.25</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
@@ -10097,7 +10103,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>15010</v>
+        <v>18968.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC7861-C897-4454-A1A4-DD3B9C2D9C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D59BA-6620-4D30-B1A5-975977E2A625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D59BA-6620-4D30-B1A5-975977E2A625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D90BECB-98B0-4F6E-9A9B-AF72BA487F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1311,7 +1311,9 @@
         <v>46006</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13">
+        <v>7.5</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
@@ -1755,7 +1757,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2838.75</v>
+        <v>2846.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4936,7 +4938,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5487,7 +5489,9 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12">
+        <v>71769.5</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -5934,7 +5938,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2650.09</v>
+        <v>74419.59</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9109,7 +9113,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9660,7 +9664,9 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12">
+        <v>3377.5</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -10107,7 +10113,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>11468.25</v>
+        <v>14845.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D90BECB-98B0-4F6E-9A9B-AF72BA487F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17285508-BB75-493A-8A5D-41F5357E383E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1337,7 +1337,9 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12">
+        <v>262.5</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1761,7 +1763,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1217.75</v>
+        <v>1480.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4938,7 +4940,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5514,7 +5516,9 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12">
+        <v>206</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5938,7 +5942,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>74419.59</v>
+        <v>74625.59</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9113,7 +9117,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9688,7 +9692,9 @@
         <v>46007</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15">
+        <v>1235.25</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
@@ -10109,7 +10115,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>18968.25</v>
+        <v>20203.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17285508-BB75-493A-8A5D-41F5357E383E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CE7EB3-B4DF-4474-8880-D39E6CDD76C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1362,7 +1362,9 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12">
+        <v>577.5</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1480.25</v>
+        <v>2057.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4940,7 +4942,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5541,7 +5543,9 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12">
+        <v>85</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5942,7 +5946,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>74625.59</v>
+        <v>74710.59</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9117,7 +9121,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9717,7 +9721,9 @@
         <v>46008</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13">
+        <v>2766</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
@@ -10115,7 +10121,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>20203.5</v>
+        <v>22969.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CE7EB3-B4DF-4474-8880-D39E6CDD76C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9795C038-60A2-4030-A176-BB24B20D65CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1386,7 +1386,9 @@
         <v>46009</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13">
+        <v>18</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
@@ -1761,7 +1763,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2846.25</v>
+        <v>2864.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4942,7 +4944,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5568,7 +5570,9 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>113.42</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -5946,7 +5950,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>74710.59</v>
+        <v>74824.009999999995</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9121,7 +9125,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9747,7 +9751,9 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>1488.75</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -10125,7 +10131,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>14845.75</v>
+        <v>16334.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9795C038-60A2-4030-A176-BB24B20D65CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991A3888-73EC-46C3-AE31-00D144578BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1411,7 +1411,9 @@
         <v>46010</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13">
+        <v>6</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="35"/>
       <c r="G28" s="1"/>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2864.25</v>
+        <v>2870.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4944,7 +4946,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5594,7 +5596,9 @@
         <v>46010</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13">
+        <v>1798.17</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="35"/>
       <c r="G28" s="1"/>
@@ -5946,7 +5950,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>75606.17</v>
+        <v>77404.34</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9125,7 +9129,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9775,7 +9779,9 @@
         <v>46010</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13">
+        <v>421.25</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="35"/>
       <c r="G28" s="1"/>
@@ -10127,7 +10133,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>22969.5</v>
+        <v>23390.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991A3888-73EC-46C3-AE31-00D144578BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EEE102-E393-475F-9618-4623E913CAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="13">
-        <v>1798.17</v>
+        <v>1807.17</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="35"/>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>77404.34</v>
+        <v>77413.34</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EEE102-E393-475F-9618-4623E913CAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CCEF0-1EF0-483C-905F-D469BB3DA46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1437,7 +1437,9 @@
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>305.5</v>
+      </c>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1769,7 +1771,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2057.75</v>
+        <v>2363.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4946,7 +4948,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5622,7 +5624,9 @@
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>3966.67</v>
+      </c>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -5954,7 +5958,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>74824.009999999995</v>
+        <v>78790.679999999993</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9129,7 +9133,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9805,7 +9809,9 @@
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>599.25</v>
+      </c>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -10137,7 +10143,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>16334.5</v>
+        <v>16933.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CCEF0-1EF0-483C-905F-D469BB3DA46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4086D6-8636-4C8F-B3A2-6AFBE1F2CAA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1487,7 +1487,9 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12">
+        <v>968.25</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1771,7 +1773,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2363.25</v>
+        <v>3331.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4948,7 +4950,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5673,7 +5675,9 @@
         <v>46013</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13">
+        <v>968.25</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
@@ -5954,7 +5958,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>77413.34</v>
+        <v>78381.59</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9132,8 +9136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9859,7 +9863,9 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12">
+        <v>69.25</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -10143,7 +10149,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>16933.75</v>
+        <v>17003</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4086D6-8636-4C8F-B3A2-6AFBE1F2CAA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C771E32C-ECB0-4F04-8DCE-93910F315825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -4950,7 +4950,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5675,10 +5675,10 @@
         <v>46013</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="13">
-        <v>968.25</v>
-      </c>
-      <c r="E31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12">
+        <v>206.75</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -5958,11 +5958,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>78381.59</v>
+        <v>77413.34</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>78790.679999999993</v>
+        <v>78997.429999999993</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9136,7 +9136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C771E32C-ECB0-4F04-8DCE-93910F315825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559F42D-EFE1-464D-952E-F5A334B56E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1512,7 +1512,9 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12">
+        <v>16489.5</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1773,7 +1775,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>3331.5</v>
+        <v>19821</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4950,7 +4952,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5700,7 +5702,9 @@
         <v>46014</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="15">
+        <v>293</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
@@ -5958,7 +5962,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>77413.34</v>
+        <v>77706.34</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9136,8 +9140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9887,7 +9891,9 @@
         <v>46014</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="15">
+        <v>49.5</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
@@ -10145,7 +10151,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>23390.75</v>
+        <v>23440.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559F42D-EFE1-464D-952E-F5A334B56E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68274BDB-DB77-4187-9851-3171CFCA0C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -1513,7 +1513,7 @@
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
       <c r="E32" s="12">
-        <v>16489.5</v>
+        <v>14139.5</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>19821</v>
+        <v>17471</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68274BDB-DB77-4187-9851-3171CFCA0C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DBACB0-48C9-4758-8234-F7C346E88BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1511,10 +1511,10 @@
         <v>46014</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="12">
-        <v>14139.5</v>
-      </c>
+      <c r="D32" s="15">
+        <v>314.5</v>
+      </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1771,11 +1771,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2870.25</v>
+        <v>3184.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>17471</v>
+        <v>3331.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DBACB0-48C9-4758-8234-F7C346E88BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C38C2-C93C-44A9-9509-F5104760AF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1536,7 +1536,9 @@
         <v>46015</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13">
+        <v>1300</v>
+      </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
@@ -1559,8 +1561,10 @@
         <v>46016</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="40"/>
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1771,7 +1775,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>3184.75</v>
+        <v>4484.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4934,13 +4938,14 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4952,7 +4957,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5728,7 +5733,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12">
+        <v>131.5</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -5750,8 +5757,10 @@
         <v>46016</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="40"/>
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -5966,7 +5975,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>78997.429999999993</v>
+        <v>79128.929999999993</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9125,11 +9134,12 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9140,8 +9150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9916,7 +9926,9 @@
         <v>46015</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13">
+        <v>1981</v>
+      </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
@@ -9939,8 +9951,10 @@
         <v>46016</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="40"/>
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -10151,7 +10165,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>23440.25</v>
+        <v>25421.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -13314,11 +13328,12 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C38C2-C93C-44A9-9509-F5104760AF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8634906D-21B2-4B99-B26F-4CB71C3514C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1586,7 +1586,9 @@
         <v>46017</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13">
+        <v>3247.25</v>
+      </c>
       <c r="E35" s="12"/>
       <c r="F35" s="35"/>
       <c r="G35" s="1"/>
@@ -1610,7 +1612,10 @@
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12">
+        <f>45466.5+368.25</f>
+        <v>45834.75</v>
+      </c>
       <c r="F36" s="34"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1775,11 +1780,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>4484.75</v>
+        <v>7732</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>3331.5</v>
+        <v>49166.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4956,8 +4961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5782,7 +5787,9 @@
         <v>46017</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13">
+        <v>2091</v>
+      </c>
       <c r="E35" s="12"/>
       <c r="F35" s="35"/>
       <c r="G35" s="1"/>
@@ -5806,7 +5813,9 @@
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12">
+        <v>1543.5</v>
+      </c>
       <c r="F36" s="34"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -5971,11 +5980,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>77706.34</v>
+        <v>79797.34</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>79128.929999999993</v>
+        <v>80672.429999999993</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9150,8 +9159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9977,7 +9986,9 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="12">
+        <v>21434.75</v>
+      </c>
       <c r="F35" s="35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -10000,7 +10011,9 @@
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12">
+        <v>347.25</v>
+      </c>
       <c r="F36" s="34"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -10169,7 +10182,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>17003</v>
+        <v>38785</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/SHORT OVER ALL ROUTES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8634906D-21B2-4B99-B26F-4CB71C3514C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80398802-5854-424B-BFEC-620681A036FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1662,8 +1662,10 @@
         <v>46020</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="40"/>
       <c r="F38" s="11"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1686,7 +1688,9 @@
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12">
+        <v>200</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1727,9 +1731,7 @@
       <c r="A41" s="11">
         <v>30</v>
       </c>
-      <c r="B41" s="31">
-        <v>46023</v>
-      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="12"/>
@@ -1750,9 +1752,7 @@
       <c r="A42" s="24">
         <v>31</v>
       </c>
-      <c r="B42" s="31">
-        <v>46024</v>
-      </c>
+      <c r="B42" s="31"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="12"/>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>49166.25</v>
+        <v>49366.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4943,7 +4943,8 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
@@ -4962,7 +4963,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5862,8 +5863,10 @@
         <v>46020</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="40"/>
       <c r="F38" s="11"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -5885,8 +5888,10 @@
         <v>46021</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="40"/>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -5927,9 +5932,7 @@
       <c r="A41" s="11">
         <v>30</v>
       </c>
-      <c r="B41" s="31">
-        <v>46023</v>
-      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="12"/>
@@ -5950,9 +5953,7 @@
       <c r="A42" s="24">
         <v>31</v>
       </c>
-      <c r="B42" s="31">
-        <v>46024</v>
-      </c>
+      <c r="B42" s="31"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="12"/>
@@ -9143,7 +9144,9 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
@@ -9160,7 +9163,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10060,8 +10063,10 @@
         <v>46020</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="40"/>
       <c r="F38" s="11"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -10083,7 +10088,9 @@
         <v>46021</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="15">
+        <v>3724.75</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
@@ -10125,9 +10132,7 @@
       <c r="A41" s="11">
         <v>30</v>
       </c>
-      <c r="B41" s="31">
-        <v>46023</v>
-      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="12"/>
@@ -10148,9 +10153,7 @@
       <c r="A42" s="24">
         <v>31</v>
       </c>
-      <c r="B42" s="31">
-        <v>46024</v>
-      </c>
+      <c r="B42" s="31"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="12"/>
@@ -10178,7 +10181,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>25421.25</v>
+        <v>29146</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -13341,7 +13344,8 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
